--- a/output/LOGOS_11182072000113.xlsx
+++ b/output/LOGOS_11182072000113.xlsx
@@ -1835,10 +1835,10 @@
         <v>44165</v>
       </c>
       <c r="B132">
-        <v>3.8346044</v>
+        <v>3.7714184</v>
       </c>
       <c r="C132">
-        <v>0.3420457876869729</v>
+        <v>0.3245058820142792</v>
       </c>
     </row>
   </sheetData>

--- a/output/LOGOS_11182072000113.xlsx
+++ b/output/LOGOS_11182072000113.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>LOGOS TOTAL RETURN FI EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1459 +383,1066 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40209</v>
       </c>
       <c r="B2">
-        <v>0.006939339999999961</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40237</v>
       </c>
       <c r="B3">
-        <v>-0.001171400000000045</v>
-      </c>
-      <c r="C3">
         <v>-0.008054844694020957</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40268</v>
       </c>
       <c r="B4">
-        <v>-0.03656283999999999</v>
-      </c>
-      <c r="C4">
         <v>-0.03543294615312376</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40298</v>
       </c>
       <c r="B5">
-        <v>-0.05914167000000004</v>
-      </c>
-      <c r="C5">
         <v>-0.02343570596757971</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40329</v>
       </c>
       <c r="B6">
-        <v>-0.03318310000000002</v>
-      </c>
-      <c r="C6">
         <v>0.02759030682121932</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>40359</v>
       </c>
       <c r="B7">
-        <v>-0.01637418000000002</v>
-      </c>
-      <c r="C7">
         <v>0.01738583593232601</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40390</v>
       </c>
       <c r="B8">
-        <v>0.08747686999999993</v>
-      </c>
-      <c r="C8">
         <v>0.1055798331930733</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40421</v>
       </c>
       <c r="B9">
-        <v>0.08744241999999991</v>
-      </c>
-      <c r="C9">
         <v>-3.167883469556987e-05</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40451</v>
       </c>
       <c r="B10">
-        <v>0.177486</v>
-      </c>
-      <c r="C10">
         <v>0.08280307843793699</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40482</v>
       </c>
       <c r="B11">
-        <v>0.2578647999999999</v>
-      </c>
-      <c r="C11">
         <v>0.06826306215105737</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40512</v>
       </c>
       <c r="B12">
-        <v>0.2598381700000001</v>
-      </c>
-      <c r="C12">
         <v>0.001568825202835855</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40543</v>
       </c>
       <c r="B13">
-        <v>0.2783202899999999</v>
-      </c>
-      <c r="C13">
         <v>0.01467023339989759</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40574</v>
       </c>
       <c r="B14">
-        <v>0.2941295799999999</v>
-      </c>
-      <c r="C14">
         <v>0.01236723700912234</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>40602</v>
       </c>
       <c r="B15">
-        <v>0.32615197</v>
-      </c>
-      <c r="C15">
         <v>0.02474434592554475</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>40633</v>
       </c>
       <c r="B16">
-        <v>0.33335841</v>
-      </c>
-      <c r="C16">
         <v>0.005434098175038038</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>40663</v>
       </c>
       <c r="B17">
-        <v>0.3469120699999999</v>
-      </c>
-      <c r="C17">
         <v>0.01016505382075028</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>40694</v>
       </c>
       <c r="B18">
-        <v>0.33955683</v>
-      </c>
-      <c r="C18">
         <v>-0.005460816755469278</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>40724</v>
       </c>
       <c r="B19">
-        <v>0.3201231099999999</v>
-      </c>
-      <c r="C19">
         <v>-0.01450757412061432</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>40755</v>
       </c>
       <c r="B20">
-        <v>0.3396916000000001</v>
-      </c>
-      <c r="C20">
         <v>0.01482323114546502</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>40786</v>
       </c>
       <c r="B21">
-        <v>0.34731398</v>
-      </c>
-      <c r="C21">
         <v>0.005689652752917107</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>40816</v>
       </c>
       <c r="B22">
-        <v>0.3518062500000001</v>
-      </c>
-      <c r="C22">
         <v>0.003334241362210166</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>40847</v>
       </c>
       <c r="B23">
-        <v>0.4099362499999999</v>
-      </c>
-      <c r="C23">
         <v>0.04300172454447515</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>40877</v>
       </c>
       <c r="B24">
-        <v>0.3809395799999999</v>
-      </c>
-      <c r="C24">
         <v>-0.02056594402761114</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>40908</v>
       </c>
       <c r="B25">
-        <v>0.4218258100000001</v>
-      </c>
-      <c r="C25">
         <v>0.02960754445172764</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>40939</v>
       </c>
       <c r="B26">
-        <v>0.4828185300000001</v>
-      </c>
-      <c r="C26">
         <v>0.04289746294590047</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>40968</v>
       </c>
       <c r="B27">
-        <v>0.5502415300000001</v>
-      </c>
-      <c r="C27">
         <v>0.04546948843429943</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>40999</v>
       </c>
       <c r="B28">
-        <v>0.58669331</v>
-      </c>
-      <c r="C28">
         <v>0.02351361339158542</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41029</v>
       </c>
       <c r="B29">
-        <v>0.61839384</v>
-      </c>
-      <c r="C29">
         <v>0.01997899014271387</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41060</v>
       </c>
       <c r="B30">
-        <v>0.5685564999999999</v>
-      </c>
-      <c r="C30">
         <v>-0.03079432136246885</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41090</v>
       </c>
       <c r="B31">
-        <v>0.6285491999999999</v>
-      </c>
-      <c r="C31">
         <v>0.038247076213066</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41121</v>
       </c>
       <c r="B32">
-        <v>0.7849537</v>
-      </c>
-      <c r="C32">
         <v>0.09603916172750582</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41152</v>
       </c>
       <c r="B33">
-        <v>0.9476001999999999</v>
-      </c>
-      <c r="C33">
         <v>0.09112085092179134</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41182</v>
       </c>
       <c r="B34">
-        <v>0.9187510000000001</v>
-      </c>
-      <c r="C34">
         <v>-0.01481269102354776</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41213</v>
       </c>
       <c r="B35">
-        <v>1.0179698</v>
-      </c>
-      <c r="C35">
         <v>0.05171009682861394</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41243</v>
       </c>
       <c r="B36">
-        <v>1.0438571</v>
-      </c>
-      <c r="C36">
         <v>0.01282838821472954</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41274</v>
       </c>
       <c r="B37">
-        <v>1.1583341</v>
-      </c>
-      <c r="C37">
         <v>0.0560102758651766</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41305</v>
       </c>
       <c r="B38">
-        <v>1.24573</v>
-      </c>
-      <c r="C38">
         <v>0.04049229449694569</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41333</v>
       </c>
       <c r="B39">
-        <v>1.3214498</v>
-      </c>
-      <c r="C39">
         <v>0.03371723225855283</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41364</v>
       </c>
       <c r="B40">
-        <v>1.2952777</v>
-      </c>
-      <c r="C40">
         <v>-0.01127403228792612</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41394</v>
       </c>
       <c r="B41">
-        <v>1.3768051</v>
-      </c>
-      <c r="C41">
         <v>0.03551962361678496</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41425</v>
       </c>
       <c r="B42">
-        <v>1.4148325</v>
-      </c>
-      <c r="C42">
         <v>0.0159993766421993</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41455</v>
       </c>
       <c r="B43">
-        <v>1.3471269</v>
-      </c>
-      <c r="C43">
         <v>-0.02803738975684655</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41486</v>
       </c>
       <c r="B44">
-        <v>1.4111846</v>
-      </c>
-      <c r="C44">
         <v>0.02729196278224233</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41517</v>
       </c>
       <c r="B45">
-        <v>1.4284828</v>
-      </c>
-      <c r="C45">
         <v>0.007174150000792023</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>41547</v>
       </c>
       <c r="B46">
-        <v>1.2934869</v>
-      </c>
-      <c r="C46">
         <v>-0.05558857571484543</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>41578</v>
       </c>
       <c r="B47">
-        <v>1.2935081</v>
-      </c>
-      <c r="C47">
         <v>9.243567076877568e-06</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>41608</v>
       </c>
       <c r="B48">
-        <v>1.3716979</v>
-      </c>
-      <c r="C48">
         <v>0.03409179152234088</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>41639</v>
       </c>
       <c r="B49">
-        <v>1.3660387</v>
-      </c>
-      <c r="C49">
         <v>-0.002386138639326796</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>41670</v>
       </c>
       <c r="B50">
-        <v>1.2596236</v>
-      </c>
-      <c r="C50">
         <v>-0.04497606061980308</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>41698</v>
       </c>
       <c r="B51">
-        <v>1.2262911</v>
-      </c>
-      <c r="C51">
         <v>-0.01475135062317445</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>41729</v>
       </c>
       <c r="B52">
-        <v>1.1562797</v>
-      </c>
-      <c r="C52">
         <v>-0.03144754969374863</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>41759</v>
       </c>
       <c r="B53">
-        <v>1.1950632</v>
-      </c>
-      <c r="C53">
         <v>0.01798630298286441</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>41790</v>
       </c>
       <c r="B54">
-        <v>1.2526251</v>
-      </c>
-      <c r="C54">
         <v>0.02622334518659875</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>41820</v>
       </c>
       <c r="B55">
-        <v>1.2957613</v>
-      </c>
-      <c r="C55">
         <v>0.01914930274016746</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>41851</v>
       </c>
       <c r="B56">
-        <v>1.3647595</v>
-      </c>
-      <c r="C56">
         <v>0.03005460541564142</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>41882</v>
       </c>
       <c r="B57">
-        <v>1.4417844</v>
-      </c>
-      <c r="C57">
         <v>0.03257198036417663</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>41912</v>
       </c>
       <c r="B58">
-        <v>1.3731223</v>
-      </c>
-      <c r="C58">
         <v>-0.02811964070210293</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>41943</v>
       </c>
       <c r="B59">
-        <v>1.5145107</v>
-      </c>
-      <c r="C59">
         <v>0.05957906172808713</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>41973</v>
       </c>
       <c r="B60">
-        <v>1.6073</v>
-      </c>
-      <c r="C60">
         <v>0.03690153316905742</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42004</v>
       </c>
       <c r="B61">
-        <v>1.5049434</v>
-      </c>
-      <c r="C61">
         <v>-0.03925769953591829</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42035</v>
       </c>
       <c r="B62">
-        <v>1.341902</v>
-      </c>
-      <c r="C62">
         <v>-0.06508785787335558</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42063</v>
       </c>
       <c r="B63">
-        <v>1.470582</v>
-      </c>
-      <c r="C63">
         <v>0.05494679111252299</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42094</v>
       </c>
       <c r="B64">
-        <v>1.4834451</v>
-      </c>
-      <c r="C64">
         <v>0.005206505997372268</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42124</v>
       </c>
       <c r="B65">
-        <v>1.3472896</v>
-      </c>
-      <c r="C65">
         <v>-0.05482525061657295</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42155</v>
       </c>
       <c r="B66">
-        <v>1.3981623</v>
-      </c>
-      <c r="C66">
         <v>0.02167295420215742</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42185</v>
       </c>
       <c r="B67">
-        <v>1.4337661</v>
-      </c>
-      <c r="C67">
         <v>0.01484628459049664</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42216</v>
       </c>
       <c r="B68">
-        <v>1.4215987</v>
-      </c>
-      <c r="C68">
         <v>-0.004999412227822519</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42247</v>
       </c>
       <c r="B69">
-        <v>1.5064936</v>
-      </c>
-      <c r="C69">
         <v>0.03505737759109318</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42277</v>
       </c>
       <c r="B70">
-        <v>1.5557</v>
-      </c>
-      <c r="C70">
         <v>0.01963156817954759</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42308</v>
       </c>
       <c r="B71">
-        <v>1.6326732</v>
-      </c>
-      <c r="C71">
         <v>0.03011824549047248</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>42338</v>
       </c>
       <c r="B72">
-        <v>1.6662033</v>
-      </c>
-      <c r="C72">
         <v>0.01273614210833296</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42369</v>
       </c>
       <c r="B73">
-        <v>1.7951892</v>
-      </c>
-      <c r="C73">
         <v>0.04837811880286846</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42400</v>
       </c>
       <c r="B74">
-        <v>1.7197129</v>
-      </c>
-      <c r="C74">
         <v>-0.02700221509155787</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42429</v>
       </c>
       <c r="B75">
-        <v>1.7394937</v>
-      </c>
-      <c r="C75">
         <v>0.007273120629754715</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42460</v>
       </c>
       <c r="B76">
-        <v>1.3302827</v>
-      </c>
-      <c r="C76">
         <v>-0.1493746818983376</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42490</v>
       </c>
       <c r="B77">
-        <v>1.4103534</v>
-      </c>
-      <c r="C77">
         <v>0.03436093826727538</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42521</v>
       </c>
       <c r="B78">
-        <v>1.2758453</v>
-      </c>
-      <c r="C78">
         <v>-0.05580430653861801</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>42551</v>
       </c>
       <c r="B79">
-        <v>1.4426669</v>
-      </c>
-      <c r="C79">
         <v>0.07330094009465404</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>42582</v>
       </c>
       <c r="B80">
-        <v>1.4084209</v>
-      </c>
-      <c r="C80">
         <v>-0.01401992224154669</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>42613</v>
       </c>
       <c r="B81">
-        <v>1.5347153</v>
-      </c>
-      <c r="C81">
         <v>0.05243867465192653</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>42643</v>
       </c>
       <c r="B82">
-        <v>1.6459038</v>
-      </c>
-      <c r="C82">
         <v>0.04386626774218017</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>42674</v>
       </c>
       <c r="B83">
-        <v>1.7765582</v>
-      </c>
-      <c r="C83">
         <v>0.04937987541345978</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>42704</v>
       </c>
       <c r="B84">
-        <v>1.5522268</v>
-      </c>
-      <c r="C84">
         <v>-0.08079477678515801</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>42735</v>
       </c>
       <c r="B85">
-        <v>1.5123357</v>
-      </c>
-      <c r="C85">
         <v>-0.0156299197234353</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>42766</v>
       </c>
       <c r="B86">
-        <v>1.6025278</v>
-      </c>
-      <c r="C86">
         <v>0.03589970082421701</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>42794</v>
       </c>
       <c r="B87">
-        <v>1.6554368</v>
-      </c>
-      <c r="C87">
         <v>0.02032985007883492</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>42825</v>
       </c>
       <c r="B88">
-        <v>1.7135785</v>
-      </c>
-      <c r="C88">
         <v>0.02189534316915398</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>42855</v>
       </c>
       <c r="B89">
-        <v>1.7165929</v>
-      </c>
-      <c r="C89">
         <v>0.00111085785799081</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>42886</v>
       </c>
       <c r="B90">
-        <v>1.6573111</v>
-      </c>
-      <c r="C90">
         <v>-0.0218221140164212</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>42916</v>
       </c>
       <c r="B91">
-        <v>1.7977436</v>
-      </c>
-      <c r="C91">
         <v>0.05284759469826472</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>42947</v>
       </c>
       <c r="B92">
-        <v>1.801616</v>
-      </c>
-      <c r="C92">
         <v>0.001384115399281072</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>42978</v>
       </c>
       <c r="B93">
-        <v>1.7967233</v>
-      </c>
-      <c r="C93">
         <v>-0.001746384943546841</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43008</v>
       </c>
       <c r="B94">
-        <v>1.9932616</v>
-      </c>
-      <c r="C94">
         <v>0.07027448872042497</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43039</v>
       </c>
       <c r="B95">
-        <v>2.0350682</v>
-      </c>
-      <c r="C95">
         <v>0.01396690486391172</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43069</v>
       </c>
       <c r="B96">
-        <v>1.9898425</v>
-      </c>
-      <c r="C96">
         <v>-0.01490104901102385</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43100</v>
       </c>
       <c r="B97">
-        <v>2.1705742</v>
-      </c>
-      <c r="C97">
         <v>0.06044856877912452</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43131</v>
       </c>
       <c r="B98">
-        <v>2.2179147</v>
-      </c>
-      <c r="C98">
         <v>0.01493120709807072</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43159</v>
       </c>
       <c r="B99">
-        <v>2.3493563</v>
-      </c>
-      <c r="C99">
         <v>0.04084682543014573</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43190</v>
       </c>
       <c r="B100">
-        <v>2.3484256</v>
-      </c>
-      <c r="C100">
         <v>-0.0002778742888596142</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43220</v>
       </c>
       <c r="B101">
-        <v>2.7186699</v>
-      </c>
-      <c r="C101">
         <v>0.1105726524131221</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43251</v>
       </c>
       <c r="B102">
-        <v>2.4879233</v>
-      </c>
-      <c r="C102">
         <v>-0.06205084242621273</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43281</v>
       </c>
       <c r="B103">
-        <v>2.9299501</v>
-      </c>
-      <c r="C103">
         <v>0.1267306537388595</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43312</v>
       </c>
       <c r="B104">
-        <v>3.3516883</v>
-      </c>
-      <c r="C104">
         <v>0.1073138816698971</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>43343</v>
       </c>
       <c r="B105">
-        <v>2.7040322</v>
-      </c>
-      <c r="C105">
         <v>-0.1488286971288822</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43373</v>
       </c>
       <c r="B106">
-        <v>2.7337506</v>
-      </c>
-      <c r="C106">
         <v>0.008023256385298216</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43404</v>
       </c>
       <c r="B107">
-        <v>3.2944973</v>
-      </c>
-      <c r="C107">
         <v>0.1501832232715274</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43434</v>
       </c>
       <c r="B108">
-        <v>3.2602227</v>
-      </c>
-      <c r="C108">
         <v>-0.007981050541119195</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43465</v>
       </c>
       <c r="B109">
-        <v>2.9551666</v>
-      </c>
-      <c r="C109">
         <v>-0.07160566981627503</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43496</v>
       </c>
       <c r="B110">
-        <v>3.967477</v>
-      </c>
-      <c r="C110">
         <v>0.2559463361164103</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43524</v>
       </c>
       <c r="B111">
-        <v>3.9705015</v>
-      </c>
-      <c r="C111">
         <v>0.0006088603933145365</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>43555</v>
       </c>
       <c r="B112">
-        <v>3.8591595</v>
-      </c>
-      <c r="C112">
         <v>-0.0224005565635581</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>43585</v>
       </c>
       <c r="B113">
-        <v>3.949377</v>
-      </c>
-      <c r="C113">
         <v>0.01856648253674331</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>43616</v>
       </c>
       <c r="B114">
-        <v>4.2636692</v>
-      </c>
-      <c r="C114">
         <v>0.06350136592948963</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>43646</v>
       </c>
       <c r="B115">
-        <v>5.1693522</v>
-      </c>
-      <c r="C115">
         <v>0.1720630544183894</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>43677</v>
       </c>
       <c r="B116">
-        <v>5.2522533</v>
-      </c>
-      <c r="C116">
         <v>0.01343756966898413</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>43708</v>
       </c>
       <c r="B117">
-        <v>4.9774296</v>
-      </c>
-      <c r="C117">
         <v>-0.0439559446511868</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>43738</v>
       </c>
       <c r="B118">
-        <v>5.196415</v>
-      </c>
-      <c r="C118">
         <v>0.03663537919375925</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>43769</v>
       </c>
       <c r="B119">
-        <v>5.7013143</v>
-      </c>
-      <c r="C119">
         <v>0.08148248624406218</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>43799</v>
       </c>
       <c r="B120">
-        <v>6.1144615</v>
-      </c>
-      <c r="C120">
         <v>0.06165166734531469</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>43830</v>
       </c>
       <c r="B121">
-        <v>7.548655999999999</v>
-      </c>
-      <c r="C121">
         <v>0.2015886233975683</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>43861</v>
       </c>
       <c r="B122">
-        <v>6.7686538</v>
-      </c>
-      <c r="C122">
         <v>-0.09124267019283494</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>43890</v>
       </c>
       <c r="B123">
-        <v>4.8538048</v>
-      </c>
-      <c r="C123">
         <v>-0.2464840176041826</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>43921</v>
       </c>
       <c r="B124">
-        <v>2.23967</v>
-      </c>
-      <c r="C124">
         <v>-0.446570203365852</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>43951</v>
       </c>
       <c r="B125">
-        <v>2.7325705</v>
-      </c>
-      <c r="C125">
         <v>0.1521452802291592</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>43982</v>
       </c>
       <c r="B126">
-        <v>3.4616996</v>
-      </c>
-      <c r="C126">
         <v>0.1953423518725232</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>44012</v>
       </c>
       <c r="B127">
-        <v>3.6118681</v>
-      </c>
-      <c r="C127">
         <v>0.03365724128984371</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>44043</v>
       </c>
       <c r="B128">
-        <v>4.4636857</v>
-      </c>
-      <c r="C128">
         <v>0.1847012060037017</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>44074</v>
       </c>
       <c r="B129">
-        <v>4.2384807</v>
-      </c>
-      <c r="C129">
         <v>-0.04121851299023294</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>44104</v>
       </c>
       <c r="B130">
-        <v>3.3996866</v>
-      </c>
-      <c r="C130">
         <v>-0.1601216360308438</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>44135</v>
       </c>
       <c r="B131">
-        <v>2.6024139</v>
-      </c>
-      <c r="C131">
         <v>-0.18121124809208</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>44165</v>
       </c>
       <c r="B132">
-        <v>3.7714184</v>
-      </c>
-      <c r="C132">
-        <v>0.3245058820142792</v>
+        <v>0.275882873980694</v>
       </c>
     </row>
   </sheetData>
